--- a/data/google-search-trend.xlsx
+++ b/data/google-search-trend.xlsx
@@ -8,64 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbaldree/Google Drive/smu/capstone/capstone/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAFA38D-710F-734D-AD70-085346632F76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA20A48-18FA-E040-94D2-87D244166B7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="440" windowWidth="38400" windowHeight="21160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multiTimeline-2" sheetId="1" r:id="rId1"/>
     <sheet name="Correlation" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'multiTimeline-2'!$A$4:$A$86</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'multiTimeline-2'!$C$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'multiTimeline-2'!$C$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'multiTimeline-2'!$C$4:$C$86</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'multiTimeline-2'!$D$3</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'multiTimeline-2'!$D$4:$D$86</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'multiTimeline-2'!$E$3</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'multiTimeline-2'!$E$4:$E$86</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'multiTimeline-2'!$L$3</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'multiTimeline-2'!$L$4:$L$86</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'multiTimeline-2'!$A$4:$A$86</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'multiTimeline-2'!$C$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'multiTimeline-2'!$C$4:$C$86</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'multiTimeline-2'!$C$4:$C$86</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'multiTimeline-2'!$D$3</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'multiTimeline-2'!$D$4:$D$86</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'multiTimeline-2'!$E$3</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'multiTimeline-2'!$E$4:$E$86</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'multiTimeline-2'!$L$3</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'multiTimeline-2'!$L$4:$L$86</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'multiTimeline-2'!$A$4:$A$86</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'multiTimeline-2'!$C$3</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'multiTimeline-2'!$C$4:$C$86</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'multiTimeline-2'!$D$3</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'multiTimeline-2'!$D$3</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'multiTimeline-2'!$D$4:$D$86</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'multiTimeline-2'!$E$3</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'multiTimeline-2'!$E$4:$E$86</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'multiTimeline-2'!$L$3</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'multiTimeline-2'!$L$4:$L$86</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$A$2:$A$84</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$B$2:$B$84</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'multiTimeline-2'!$D$4:$D$86</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$C$2:$C$84</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$D$2:$D$84</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$E$2:$E$84</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$F$2:$F$84</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'multiTimeline-2'!$E$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'multiTimeline-2'!$E$4:$E$86</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'multiTimeline-2'!$L$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'multiTimeline-2'!$L$4:$L$86</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'multiTimeline-2'!$A$4:$A$86</definedName>
-  </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
@@ -160,9 +111,6 @@
     <t>Srch Wkly Chg</t>
   </si>
   <si>
-    <t>Price Wkly Chg</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
@@ -212,6 +160,9 @@
   </si>
   <si>
     <t>std dev for 11/29 search</t>
+  </si>
+  <si>
+    <t>Price Daily Chg</t>
   </si>
 </sst>
 </file>
@@ -749,7 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -782,6 +733,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -2718,6 +2670,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="801990576"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -3384,7 +3337,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Price Wkly Chg</c:v>
+                  <c:v>Price Daily Chg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3665,233 +3618,251 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="83"/>
+                <c:pt idx="1">
+                  <c:v>-1.7925798352961087E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6400528571252182E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.074081724401892E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6889471111055524E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0145026612627503E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2718167507015463E-2</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17994930322251992</c:v>
+                  <c:v>4.4310863031343774E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22238276956516359</c:v>
+                  <c:v>1.7391661869912093E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18460286023256092</c:v>
+                  <c:v>-1.5013133966457771E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2419300246956915</c:v>
+                  <c:v>1.6165097339323524E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.32684701401435612</c:v>
+                  <c:v>9.710305844352482E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24124478109100841</c:v>
+                  <c:v>1.1040574109851514E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19761700300558191</c:v>
+                  <c:v>2.5365315687896513E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19182221856755224</c:v>
+                  <c:v>3.9257865017477772E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.17144877753081444</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.38746999815373262</c:v>
+                  <c:v>0.16662354463130666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.67568385989704227</c:v>
+                  <c:v>0.22724920529311732</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.46002392124390451</c:v>
+                  <c:v>-4.4093729293416019E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.34730263762521835</c:v>
+                  <c:v>-7.6186275127607311E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.34417854261898351</c:v>
+                  <c:v>2.2987721691678068E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.44493316084519202</c:v>
+                  <c:v>0.11715676468627073</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.4633031479085814</c:v>
+                  <c:v>1.2713381878954251E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.19620019220817617</c:v>
+                  <c:v>-4.6325219543820434E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.3131739051864388E-2</c:v>
+                  <c:v>1.2483777269637116E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.10416535383452014</c:v>
+                  <c:v>6.9523286333394468E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.30879945429740802</c:v>
+                  <c:v>9.502339915534759E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.26498633059945309</c:v>
+                  <c:v>-1.1257622348465236E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.13011818073295917</c:v>
+                  <c:v>-1.9503452638236054E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.2278540696646268E-2</c:v>
+                  <c:v>-8.3923101299250097E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.5079414127680598E-2</c:v>
+                  <c:v>-5.3041222254251882E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-4.3714215955563678E-2</c:v>
+                  <c:v>-4.6159512937595203E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.24837347334779142</c:v>
+                  <c:v>-0.15937046613769346</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.26851514045968627</c:v>
+                  <c:v>6.5679574791192158E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.28965262769490274</c:v>
+                  <c:v>-3.9828998931243344E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.2805006865955425</c:v>
+                  <c:v>1.0908281389136234E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-9.6050735082156058E-2</c:v>
+                  <c:v>0.15092123614475542</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-6.3987823439878175E-2</c:v>
+                  <c:v>-1.9452771222654576E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-8.6286121697880067E-2</c:v>
+                  <c:v>-6.8882528944972043E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.709187547456361E-2</c:v>
+                  <c:v>1.3971358714642146E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.11813323833273948</c:v>
+                  <c:v>-0.13550324788712723</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.404274265360648E-2</c:v>
+                  <c:v>0.11497131776682547</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.9746017764075238E-2</c:v>
+                  <c:v>-3.2318840579709997E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-6.1813891192040483E-2</c:v>
+                  <c:v>0.10152912984873423</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.4244828931963039E-2</c:v>
+                  <c:v>3.0264136474817641E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.9028990569332786E-2</c:v>
+                  <c:v>3.2992411745287327E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.18160229098274777</c:v>
+                  <c:v>0.11589709762532996</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.38652339015916598</c:v>
+                  <c:v>1.442336111603694E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.17362318840579696</c:v>
+                  <c:v>-5.6232154303362314E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.11801707353601909</c:v>
+                  <c:v>-7.8167448752778271E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-1.9498539071178312E-2</c:v>
+                  <c:v>-3.3958472873409383E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.7090069284064875E-2</c:v>
+                  <c:v>3.2794841572488319E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.12493403693931397</c:v>
+                  <c:v>-0.10942534908700312</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.18525743335106715</c:v>
+                  <c:v>3.8971807628523952E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.17306683759687658</c:v>
+                  <c:v>2.9601683232968242E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.16287972338849097</c:v>
+                  <c:v>-4.4605736029878183E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-9.0756865371734829E-2</c:v>
+                  <c:v>1.2538722525447406E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.23233723913194199</c:v>
+                  <c:v>-0.18438305709023942</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.25604189044038655</c:v>
+                  <c:v>9.0317919075152216E-4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.1674204733906226</c:v>
+                  <c:v>-3.3387475184985067E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.16738010592759192</c:v>
+                  <c:v>3.9022181982797534E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.10309350997110842</c:v>
+                  <c:v>0.1090972464273267</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.15075969907065917</c:v>
+                  <c:v>-9.5380263984915045E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.20655616942909766</c:v>
+                  <c:v>-6.4530137224248912E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-2.2850433526011443E-2</c:v>
+                  <c:v>4.4564107325226832E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.9958491247067381E-2</c:v>
+                  <c:v>5.499584065070711E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.1444092349478572E-3</c:v>
+                  <c:v>-2.3479936919572637E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-3.5378180550714435E-2</c:v>
+                  <c:v>-6.8185896285662207E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-9.9544311753614209E-2</c:v>
+                  <c:v>3.5320686540198577E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.8226506861212433E-2</c:v>
+                  <c:v>3.2981415234273011E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.0943273605050699E-2</c:v>
+                  <c:v>-5.2960554100853194E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-5.9524909880765427E-2</c:v>
+                  <c:v>-9.2490189083125257E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-9.9001226563869019E-2</c:v>
+                  <c:v>1.0712530712530746E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.17628745738381471</c:v>
+                  <c:v>-0.10724426293271097</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.19640469738030716</c:v>
+                  <c:v>-3.1074707823681349E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.1955850274845127</c:v>
+                  <c:v>3.637671710245273E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.30737393360925763</c:v>
+                  <c:v>-0.11057118684513081</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.38013735283624694</c:v>
+                  <c:v>-0.15245121951219517</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.24581818181818182</c:v>
+                  <c:v>0.10415977208305162</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.26225204200700114</c:v>
+                  <c:v>-1.1311214782767273E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.10303776235963019</c:v>
+                  <c:v>8.5422433109265769E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-2.389891859079555E-2</c:v>
+                  <c:v>5.4413425459314504E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-7.1186845130919468E-2</c:v>
+                  <c:v>-1.3831306430809005E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4641,6 +4612,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="884842352"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -6778,11 +6750,11 @@
         <v>0.12390815836556202</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K8:K71" si="5">I20/J20</f>
+        <f t="shared" ref="K20:K71" si="5">I20/J20</f>
         <v>1.2017623401862159</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L6:L69" si="6">100-(100/(K20+1))</f>
+        <f t="shared" ref="L20:L69" si="6">100-(100/(K20+1))</f>
         <v>54.581837387797982</v>
       </c>
     </row>
@@ -6817,11 +6789,11 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I8:I71" si="7">((I20*($I$2-1)+G21)/$I$2)</f>
+        <f t="shared" ref="I21:I71" si="7">((I20*($I$2-1)+G21)/$I$2)</f>
         <v>0.20091092227723822</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J8:J71" si="8">((J20*($J$2-1)+H21)/$J$2)</f>
+        <f t="shared" ref="J21:J71" si="8">((J20*($J$2-1)+H21)/$J$2)</f>
         <v>0.11616389846771438</v>
       </c>
       <c r="K21">
@@ -6833,7 +6805,7 @@
         <v>63.363884210423059</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" ref="M7:M70" si="9">(L21-L20)/L20</f>
+        <f t="shared" ref="M21:M70" si="9">(L21-L20)/L20</f>
         <v>0.16089687051444596</v>
       </c>
     </row>
@@ -12511,8 +12483,8 @@
   <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12543,7 +12515,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -12573,6 +12545,10 @@
       <c r="E3">
         <v>80.972999999999999</v>
       </c>
+      <c r="F3" s="2">
+        <f>(E3-E2)/E2</f>
+        <v>-1.7925798352961087E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
@@ -12588,6 +12564,10 @@
       <c r="E4">
         <v>82.301000000000002</v>
       </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F67" si="0">(E4-E3)/E3</f>
+        <v>1.6400528571252182E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
@@ -12603,6 +12583,10 @@
       <c r="E5">
         <v>79.771000000000001</v>
       </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.074081724401892E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
@@ -12618,6 +12602,10 @@
       <c r="E6">
         <v>81.916000000000011</v>
       </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6889471111055524E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
@@ -12633,6 +12621,10 @@
       <c r="E7">
         <v>87.662000000000006</v>
       </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0145026612627503E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
@@ -12648,6 +12640,10 @@
       <c r="E8" s="15">
         <v>93.16</v>
       </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2718167507015463E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
@@ -12666,8 +12662,8 @@
         <v>97.287999999999982</v>
       </c>
       <c r="F9" s="2">
-        <f>(E9-E2)/E2</f>
-        <v>0.17994930322251992</v>
+        <f t="shared" si="0"/>
+        <v>4.4310863031343774E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -12687,8 +12683,8 @@
         <v>98.97999999999999</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ref="F10:F73" si="0">(E10-E3)/E3</f>
-        <v>0.22238276956516359</v>
+        <f t="shared" si="0"/>
+        <v>1.7391661869912093E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -12709,7 +12705,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.18460286023256092</v>
+        <v>-1.5013133966457771E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -12730,7 +12726,7 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.2419300246956915</v>
+        <v>1.6165097339323524E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -12751,7 +12747,7 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.32684701401435612</v>
+        <v>9.710305844352482E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -12772,7 +12768,7 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.24124478109100841</v>
+        <v>1.1040574109851514E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -12793,7 +12789,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.19761700300558191</v>
+        <v>2.5365315687896513E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -12814,7 +12810,7 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0.19182221856755224</v>
+        <v>3.9257865017477772E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -12835,7 +12831,7 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0.17144877753081444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -12856,7 +12852,7 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>0.38746999815373262</v>
+        <v>0.16662354463130666</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -12877,7 +12873,7 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0.67568385989704227</v>
+        <v>0.22724920529311732</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -12898,7 +12894,7 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.46002392124390451</v>
+        <v>-4.4093729293416019E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -12919,7 +12915,7 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>0.34730263762521835</v>
+        <v>-7.6186275127607311E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -12940,7 +12936,7 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.34417854261898351</v>
+        <v>2.2987721691678068E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -12961,7 +12957,7 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.44493316084519202</v>
+        <v>0.11715676468627073</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -12982,7 +12978,7 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>0.4633031479085814</v>
+        <v>1.2713381878954251E-2</v>
       </c>
       <c r="H24" s="19"/>
     </row>
@@ -13004,7 +13000,7 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>0.19620019220817617</v>
+        <v>-4.6325219543820434E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -13025,7 +13021,7 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>-1.3131739051864388E-2</v>
+        <v>1.2483777269637116E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -13046,7 +13042,7 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>0.10416535383452014</v>
+        <v>6.9523286333394468E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -13067,7 +13063,7 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>0.30879945429740802</v>
+        <v>9.502339915534759E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -13088,7 +13084,7 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>0.26498633059945309</v>
+        <v>-1.1257622348465236E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -13109,7 +13105,7 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>0.13011818073295917</v>
+        <v>-1.9503452638236054E-3</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -13130,7 +13126,7 @@
       </c>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>2.2278540696646268E-2</v>
+        <v>-8.3923101299250097E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" thickBot="1">
@@ -13151,7 +13147,7 @@
       </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>1.5079414127680598E-2</v>
+        <v>-5.3041222254251882E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -13172,10 +13168,10 @@
       </c>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
-        <v>-4.3714215955563678E-2</v>
+        <v>-4.6159512937595203E-2</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I33" s="16"/>
     </row>
@@ -13197,7 +13193,7 @@
       </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>-0.24837347334779142</v>
+        <v>-0.15937046613769346</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -13220,16 +13216,16 @@
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>-0.26851514045968627</v>
+        <v>6.5679574791192158E-2</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I35" s="17">
         <v>0.22518899682298119</v>
       </c>
       <c r="K35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -13250,16 +13246,16 @@
       </c>
       <c r="F36" s="2">
         <f t="shared" si="0"/>
-        <v>-0.28965262769490274</v>
+        <v>-3.9828998931243344E-2</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I36" s="17">
         <v>8.9310963489574041E-2</v>
       </c>
       <c r="K36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L36" s="21">
         <f>(3.46-0.23)/0.78</f>
@@ -13284,10 +13280,10 @@
       </c>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>-0.2805006865955425</v>
+        <v>1.0908281389136234E-2</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I37" s="17">
         <v>-5.6250000000000001E-2</v>
@@ -13311,10 +13307,10 @@
       </c>
       <c r="F38" s="2">
         <f t="shared" si="0"/>
-        <v>-9.6050735082156058E-2</v>
+        <v>0.15092123614475542</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I38" s="17">
         <v>0.14285714285714285</v>
@@ -13338,10 +13334,10 @@
       </c>
       <c r="F39" s="2">
         <f t="shared" si="0"/>
-        <v>-6.3987823439878175E-2</v>
+        <v>-1.9452771222654576E-2</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I39" s="20">
         <v>0.77859492880260794</v>
@@ -13365,10 +13361,10 @@
       </c>
       <c r="F40" s="2">
         <f t="shared" si="0"/>
-        <v>-8.6286121697880067E-2</v>
+        <v>-6.8882528944972043E-2</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40" s="17">
         <v>0.60621006315713821</v>
@@ -13392,10 +13388,10 @@
       </c>
       <c r="F41" s="2">
         <f t="shared" si="0"/>
-        <v>8.709187547456361E-2</v>
+        <v>1.3971358714642146E-4</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I41" s="20">
         <v>3.8764939107591845</v>
@@ -13419,14 +13415,15 @@
       </c>
       <c r="F42" s="2">
         <f t="shared" si="0"/>
-        <v>-0.11813323833273948</v>
+        <v>-0.13550324788712723</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I42" s="20">
         <v>1.7933206441747984</v>
       </c>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1">
@@ -13446,10 +13443,10 @@
       </c>
       <c r="F43" s="2">
         <f t="shared" si="0"/>
-        <v>2.404274265360648E-2</v>
+        <v>0.11497131776682547</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I43" s="17">
         <v>4.1758241758241761</v>
@@ -13473,10 +13470,11 @@
       </c>
       <c r="F44" s="2">
         <f t="shared" si="0"/>
-        <v>-1.9746017764075238E-2</v>
-      </c>
+        <v>-3.2318840579709997E-2</v>
+      </c>
+      <c r="G44" s="8"/>
       <c r="H44" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I44" s="17">
         <v>-0.7142857142857143</v>
@@ -13500,10 +13498,10 @@
       </c>
       <c r="F45" s="2">
         <f t="shared" si="0"/>
-        <v>-6.1813891192040483E-2</v>
+        <v>0.10152912984873423</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I45" s="17">
         <v>3.4615384615384617</v>
@@ -13527,10 +13525,10 @@
       </c>
       <c r="F46" s="2">
         <f t="shared" si="0"/>
-        <v>-1.4244828931963039E-2</v>
+        <v>3.0264136474817641E-2</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I46" s="17">
         <v>17.11436375854657</v>
@@ -13554,10 +13552,10 @@
       </c>
       <c r="F47" s="2">
         <f t="shared" si="0"/>
-        <v>5.9028990569332786E-2</v>
+        <v>3.2992411745287327E-4</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I47" s="5">
         <v>76</v>
@@ -13581,10 +13579,10 @@
       </c>
       <c r="F48" s="2">
         <f t="shared" si="0"/>
-        <v>0.18160229098274777</v>
+        <v>0.11589709762532996</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I48" s="18">
         <v>0.17791656274359591</v>
@@ -13608,7 +13606,7 @@
       </c>
       <c r="F49" s="2">
         <f t="shared" si="0"/>
-        <v>0.38652339015916598</v>
+        <v>1.442336111603694E-2</v>
       </c>
       <c r="H49" s="8"/>
     </row>
@@ -13630,7 +13628,7 @@
       </c>
       <c r="F50" s="2">
         <f t="shared" si="0"/>
-        <v>0.17362318840579696</v>
+        <v>-5.6232154303362314E-2</v>
       </c>
       <c r="H50" s="8"/>
     </row>
@@ -13652,7 +13650,7 @@
       </c>
       <c r="F51" s="2">
         <f t="shared" si="0"/>
-        <v>0.11801707353601909</v>
+        <v>-7.8167448752778271E-2</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -13674,7 +13672,7 @@
       </c>
       <c r="F52" s="2">
         <f t="shared" si="0"/>
-        <v>-1.9498539071178312E-2</v>
+        <v>-3.3958472873409383E-2</v>
       </c>
       <c r="H52" s="8"/>
     </row>
@@ -13696,7 +13694,7 @@
       </c>
       <c r="F53" s="2">
         <f t="shared" si="0"/>
-        <v>-1.7090069284064875E-2</v>
+        <v>3.2794841572488319E-2</v>
       </c>
       <c r="H53" s="8"/>
     </row>
@@ -13718,7 +13716,7 @@
       </c>
       <c r="F54" s="2">
         <f t="shared" si="0"/>
-        <v>-0.12493403693931397</v>
+        <v>-0.10942534908700312</v>
       </c>
       <c r="H54" s="8"/>
     </row>
@@ -13740,7 +13738,7 @@
       </c>
       <c r="F55" s="2">
         <f t="shared" si="0"/>
-        <v>-0.18525743335106715</v>
+        <v>3.8971807628523952E-2</v>
       </c>
       <c r="H55" s="8"/>
     </row>
@@ -13762,7 +13760,7 @@
       </c>
       <c r="F56" s="2">
         <f t="shared" si="0"/>
-        <v>-0.17306683759687658</v>
+        <v>2.9601683232968242E-2</v>
       </c>
       <c r="H56" s="8"/>
     </row>
@@ -13784,7 +13782,7 @@
       </c>
       <c r="F57" s="2">
         <f t="shared" si="0"/>
-        <v>-0.16287972338849097</v>
+        <v>-4.4605736029878183E-2</v>
       </c>
       <c r="H57" s="8"/>
     </row>
@@ -13806,7 +13804,7 @@
       </c>
       <c r="F58" s="2">
         <f t="shared" si="0"/>
-        <v>-9.0756865371734829E-2</v>
+        <v>1.2538722525447406E-3</v>
       </c>
       <c r="H58" s="8"/>
     </row>
@@ -13828,7 +13826,7 @@
       </c>
       <c r="F59" s="2">
         <f t="shared" si="0"/>
-        <v>-0.23233723913194199</v>
+        <v>-0.18438305709023942</v>
       </c>
       <c r="H59" s="8"/>
     </row>
@@ -13850,7 +13848,7 @@
       </c>
       <c r="F60" s="2">
         <f t="shared" si="0"/>
-        <v>-0.25604189044038655</v>
+        <v>9.0317919075152216E-4</v>
       </c>
       <c r="H60" s="8"/>
     </row>
@@ -13872,7 +13870,7 @@
       </c>
       <c r="F61" s="2">
         <f t="shared" si="0"/>
-        <v>-0.1674204733906226</v>
+        <v>-3.3387475184985067E-3</v>
       </c>
       <c r="H61" s="8"/>
     </row>
@@ -13894,7 +13892,7 @@
       </c>
       <c r="F62" s="2">
         <f t="shared" si="0"/>
-        <v>-0.16738010592759192</v>
+        <v>3.9022181982797534E-2</v>
       </c>
       <c r="H62" s="8"/>
     </row>
@@ -13916,7 +13914,7 @@
       </c>
       <c r="F63" s="2">
         <f t="shared" si="0"/>
-        <v>-0.10309350997110842</v>
+        <v>0.1090972464273267</v>
       </c>
       <c r="H63" s="8"/>
     </row>
@@ -13938,7 +13936,7 @@
       </c>
       <c r="F64" s="2">
         <f t="shared" si="0"/>
-        <v>-0.15075969907065917</v>
+        <v>-9.5380263984915045E-2</v>
       </c>
       <c r="H64" s="8"/>
     </row>
@@ -13960,7 +13958,7 @@
       </c>
       <c r="F65" s="2">
         <f t="shared" si="0"/>
-        <v>-0.20655616942909766</v>
+        <v>-6.4530137224248912E-2</v>
       </c>
       <c r="H65" s="8"/>
     </row>
@@ -13982,7 +13980,7 @@
       </c>
       <c r="F66" s="2">
         <f t="shared" si="0"/>
-        <v>-2.2850433526011443E-2</v>
+        <v>4.4564107325226832E-3</v>
       </c>
       <c r="H66" s="8"/>
     </row>
@@ -14004,7 +14002,7 @@
       </c>
       <c r="F67" s="2">
         <f t="shared" si="0"/>
-        <v>2.9958491247067381E-2</v>
+        <v>5.499584065070711E-2</v>
       </c>
       <c r="H67" s="8"/>
     </row>
@@ -14025,8 +14023,8 @@
         <v>111.46</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" si="0"/>
-        <v>9.1444092349478572E-3</v>
+        <f t="shared" ref="F68:F84" si="1">(E68-E67)/E67</f>
+        <v>-2.3479936919572637E-2</v>
       </c>
       <c r="H68" s="8"/>
     </row>
@@ -14047,8 +14045,8 @@
         <v>110.7</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.5378180550714435E-2</v>
+        <f t="shared" si="1"/>
+        <v>-6.8185896285662207E-3</v>
       </c>
       <c r="H69" s="8"/>
     </row>
@@ -14069,8 +14067,8 @@
         <v>114.60999999999999</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="0"/>
-        <v>-9.9544311753614209E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.5320686540198577E-2</v>
       </c>
       <c r="H70" s="8"/>
     </row>
@@ -14091,8 +14089,8 @@
         <v>118.39000000000001</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8226506861212433E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.2981415234273011E-2</v>
       </c>
       <c r="H71" s="8"/>
     </row>
@@ -14113,8 +14111,8 @@
         <v>112.12</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0943273605050699E-2</v>
+        <f t="shared" si="1"/>
+        <v>-5.2960554100853194E-2</v>
       </c>
       <c r="H72" s="8"/>
     </row>
@@ -14135,8 +14133,8 @@
         <v>101.75</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="0"/>
-        <v>-5.9524909880765427E-2</v>
+        <f t="shared" si="1"/>
+        <v>-9.2490189083125257E-2</v>
       </c>
       <c r="H73" s="8"/>
     </row>
@@ -14157,8 +14155,8 @@
         <v>102.84</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" ref="F74:F84" si="1">(E74-E67)/E67</f>
-        <v>-9.9001226563869019E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.0712530712530746E-2</v>
       </c>
       <c r="H74" s="8"/>
     </row>
@@ -14180,7 +14178,7 @@
       </c>
       <c r="F75" s="2">
         <f t="shared" si="1"/>
-        <v>-0.17628745738381471</v>
+        <v>-0.10724426293271097</v>
       </c>
       <c r="H75" s="8"/>
     </row>
@@ -14202,7 +14200,7 @@
       </c>
       <c r="F76" s="2">
         <f t="shared" si="1"/>
-        <v>-0.19640469738030716</v>
+        <v>-3.1074707823681349E-2</v>
       </c>
       <c r="H76" s="8"/>
     </row>
@@ -14224,7 +14222,7 @@
       </c>
       <c r="F77" s="2">
         <f t="shared" si="1"/>
-        <v>-0.1955850274845127</v>
+        <v>3.637671710245273E-2</v>
       </c>
       <c r="H77" s="8"/>
     </row>
@@ -14246,7 +14244,7 @@
       </c>
       <c r="F78" s="2">
         <f t="shared" si="1"/>
-        <v>-0.30737393360925763</v>
+        <v>-0.11057118684513081</v>
       </c>
       <c r="H78" s="8"/>
     </row>
@@ -14268,7 +14266,7 @@
       </c>
       <c r="F79" s="2">
         <f t="shared" si="1"/>
-        <v>-0.38013735283624694</v>
+        <v>-0.15245121951219517</v>
       </c>
       <c r="H79" s="8"/>
     </row>
@@ -14290,7 +14288,7 @@
       </c>
       <c r="F80" s="2">
         <f t="shared" si="1"/>
-        <v>-0.24581818181818182</v>
+        <v>0.10415977208305162</v>
       </c>
       <c r="H80" s="8"/>
     </row>
@@ -14312,7 +14310,7 @@
       </c>
       <c r="F81" s="2">
         <f t="shared" si="1"/>
-        <v>-0.26225204200700114</v>
+        <v>-1.1311214782767273E-2</v>
       </c>
       <c r="H81" s="8"/>
     </row>
@@ -14334,7 +14332,7 @@
       </c>
       <c r="F82" s="2">
         <f t="shared" si="1"/>
-        <v>-0.10303776235963019</v>
+        <v>8.5422433109265769E-2</v>
       </c>
       <c r="H82" s="8"/>
     </row>
@@ -14356,7 +14354,7 @@
       </c>
       <c r="F83" s="2">
         <f t="shared" si="1"/>
-        <v>-2.389891859079555E-2</v>
+        <v>5.4413425459314504E-2</v>
       </c>
       <c r="H83" s="8"/>
     </row>
@@ -14378,11 +14376,18 @@
       </c>
       <c r="F84" s="2">
         <f t="shared" si="1"/>
-        <v>-7.1186845130919468E-2</v>
-      </c>
-      <c r="H84" s="8"/>
+        <v>-1.3831306430809005E-2</v>
+      </c>
+      <c r="H84" s="22">
+        <f>A84-A2</f>
+        <v>82</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
+      <c r="F85" s="2">
+        <f>SUM(F3:F84)</f>
+        <v>0.26193184405645215</v>
+      </c>
       <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8">

--- a/data/google-search-trend.xlsx
+++ b/data/google-search-trend.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbaldree/Google Drive/smu/capstone/capstone/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA20A48-18FA-E040-94D2-87D244166B7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB26FCF-7ABE-6844-BD05-5537F92FEE7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="440" windowWidth="38400" windowHeight="21160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,7 +162,7 @@
     <t>std dev for 11/29 search</t>
   </si>
   <si>
-    <t>Price Daily Chg</t>
+    <t>Price Weekly Chg</t>
   </si>
 </sst>
 </file>
@@ -2765,6 +2765,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Google</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 'bitcoin' Search Trend</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2819,6 +2849,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3337,7 +3368,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Price Daily Chg</c:v>
+                  <c:v>Price Weekly Chg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3618,251 +3649,233 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="83"/>
-                <c:pt idx="1">
-                  <c:v>-1.7925798352961087E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6400528571252182E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.074081724401892E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6889471111055524E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0145026612627503E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2718167507015463E-2</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4310863031343774E-2</c:v>
+                  <c:v>0.17994930322251992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7391661869912093E-2</c:v>
+                  <c:v>0.22238276956516359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.5013133966457771E-2</c:v>
+                  <c:v>0.18460286023256092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6165097339323524E-2</c:v>
+                  <c:v>0.2419300246956915</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.710305844352482E-2</c:v>
+                  <c:v>0.32684701401435612</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1040574109851514E-3</c:v>
+                  <c:v>0.24124478109100841</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5365315687896513E-2</c:v>
+                  <c:v>0.19761700300558191</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9257865017477772E-2</c:v>
+                  <c:v>0.19182221856755224</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.17144877753081444</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16662354463130666</c:v>
+                  <c:v>0.38746999815373262</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.22724920529311732</c:v>
+                  <c:v>0.67568385989704227</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.4093729293416019E-2</c:v>
+                  <c:v>0.46002392124390451</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.6186275127607311E-2</c:v>
+                  <c:v>0.34730263762521835</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2987721691678068E-2</c:v>
+                  <c:v>0.34417854261898351</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.11715676468627073</c:v>
+                  <c:v>0.44493316084519202</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2713381878954251E-2</c:v>
+                  <c:v>0.4633031479085814</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-4.6325219543820434E-2</c:v>
+                  <c:v>0.19620019220817617</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2483777269637116E-2</c:v>
+                  <c:v>-1.3131739051864388E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.9523286333394468E-2</c:v>
+                  <c:v>0.10416535383452014</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.502339915534759E-2</c:v>
+                  <c:v>0.30879945429740802</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.1257622348465236E-2</c:v>
+                  <c:v>0.26498633059945309</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.9503452638236054E-3</c:v>
+                  <c:v>0.13011818073295917</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-8.3923101299250097E-2</c:v>
+                  <c:v>2.2278540696646268E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-5.3041222254251882E-2</c:v>
+                  <c:v>1.5079414127680598E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-4.6159512937595203E-2</c:v>
+                  <c:v>-4.3714215955563678E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.15937046613769346</c:v>
+                  <c:v>-0.24837347334779142</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.5679574791192158E-2</c:v>
+                  <c:v>-0.26851514045968627</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3.9828998931243344E-2</c:v>
+                  <c:v>-0.28965262769490274</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0908281389136234E-2</c:v>
+                  <c:v>-0.2805006865955425</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.15092123614475542</c:v>
+                  <c:v>-9.6050735082156058E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.9452771222654576E-2</c:v>
+                  <c:v>-6.3987823439878175E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-6.8882528944972043E-2</c:v>
+                  <c:v>-8.6286121697880067E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3971358714642146E-4</c:v>
+                  <c:v>8.709187547456361E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.13550324788712723</c:v>
+                  <c:v>-0.11813323833273948</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.11497131776682547</c:v>
+                  <c:v>2.404274265360648E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-3.2318840579709997E-2</c:v>
+                  <c:v>-1.9746017764075238E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.10152912984873423</c:v>
+                  <c:v>-6.1813891192040483E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.0264136474817641E-2</c:v>
+                  <c:v>-1.4244828931963039E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.2992411745287327E-4</c:v>
+                  <c:v>5.9028990569332786E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.11589709762532996</c:v>
+                  <c:v>0.18160229098274777</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.442336111603694E-2</c:v>
+                  <c:v>0.38652339015916598</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-5.6232154303362314E-2</c:v>
+                  <c:v>0.17362318840579696</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-7.8167448752778271E-2</c:v>
+                  <c:v>0.11801707353601909</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3.3958472873409383E-2</c:v>
+                  <c:v>-1.9498539071178312E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.2794841572488319E-2</c:v>
+                  <c:v>-1.7090069284064875E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.10942534908700312</c:v>
+                  <c:v>-0.12493403693931397</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.8971807628523952E-2</c:v>
+                  <c:v>-0.18525743335106715</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.9601683232968242E-2</c:v>
+                  <c:v>-0.17306683759687658</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-4.4605736029878183E-2</c:v>
+                  <c:v>-0.16287972338849097</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.2538722525447406E-3</c:v>
+                  <c:v>-9.0756865371734829E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.18438305709023942</c:v>
+                  <c:v>-0.23233723913194199</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.0317919075152216E-4</c:v>
+                  <c:v>-0.25604189044038655</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-3.3387475184985067E-3</c:v>
+                  <c:v>-0.1674204733906226</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.9022181982797534E-2</c:v>
+                  <c:v>-0.16738010592759192</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1090972464273267</c:v>
+                  <c:v>-0.10309350997110842</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-9.5380263984915045E-2</c:v>
+                  <c:v>-0.15075969907065917</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-6.4530137224248912E-2</c:v>
+                  <c:v>-0.20655616942909766</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.4564107325226832E-3</c:v>
+                  <c:v>-2.2850433526011443E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.499584065070711E-2</c:v>
+                  <c:v>2.9958491247067381E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.3479936919572637E-2</c:v>
+                  <c:v>9.1444092349478572E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-6.8185896285662207E-3</c:v>
+                  <c:v>-3.5378180550714435E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.5320686540198577E-2</c:v>
+                  <c:v>-9.9544311753614209E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.2981415234273011E-2</c:v>
+                  <c:v>2.8226506861212433E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-5.2960554100853194E-2</c:v>
+                  <c:v>4.0943273605050699E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-9.2490189083125257E-2</c:v>
+                  <c:v>-5.9524909880765427E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.0712530712530746E-2</c:v>
+                  <c:v>-9.9001226563869019E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.10724426293271097</c:v>
+                  <c:v>-0.17628745738381471</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-3.1074707823681349E-2</c:v>
+                  <c:v>-0.19640469738030716</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.637671710245273E-2</c:v>
+                  <c:v>-0.1955850274845127</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.11057118684513081</c:v>
+                  <c:v>-0.30737393360925763</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.15245121951219517</c:v>
+                  <c:v>-0.38013735283624694</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.10415977208305162</c:v>
+                  <c:v>-0.24581818181818182</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-1.1311214782767273E-2</c:v>
+                  <c:v>-0.26225204200700114</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.5422433109265769E-2</c:v>
+                  <c:v>-0.10303776235963019</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.4413425459314504E-2</c:v>
+                  <c:v>-2.389891859079555E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.3831306430809005E-2</c:v>
+                  <c:v>-7.1186845130919468E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5850,16 +5863,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>206373</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>189441</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>629706</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>740832</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:colOff>338665</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12483,8 +12496,8 @@
   <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12545,10 +12558,6 @@
       <c r="E3">
         <v>80.972999999999999</v>
       </c>
-      <c r="F3" s="2">
-        <f>(E3-E2)/E2</f>
-        <v>-1.7925798352961087E-2</v>
-      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
@@ -12564,10 +12573,6 @@
       <c r="E4">
         <v>82.301000000000002</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" ref="F4:F67" si="0">(E4-E3)/E3</f>
-        <v>1.6400528571252182E-2</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
@@ -12583,10 +12588,6 @@
       <c r="E5">
         <v>79.771000000000001</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.074081724401892E-2</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
@@ -12602,10 +12603,6 @@
       <c r="E6">
         <v>81.916000000000011</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6889471111055524E-2</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
@@ -12621,10 +12618,6 @@
       <c r="E7">
         <v>87.662000000000006</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>7.0145026612627503E-2</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
@@ -12640,10 +12633,6 @@
       <c r="E8" s="15">
         <v>93.16</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>6.2718167507015463E-2</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
@@ -12662,8 +12651,8 @@
         <v>97.287999999999982</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>4.4310863031343774E-2</v>
+        <f>(E9-E2)/E2</f>
+        <v>0.17994930322251992</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -12683,8 +12672,8 @@
         <v>98.97999999999999</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7391661869912093E-2</v>
+        <f t="shared" ref="F10:F73" si="0">(E10-E3)/E3</f>
+        <v>0.22238276956516359</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -12705,7 +12694,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>-1.5013133966457771E-2</v>
+        <v>0.18460286023256092</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -12726,7 +12715,7 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>1.6165097339323524E-2</v>
+        <v>0.2419300246956915</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -12747,7 +12736,7 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>9.710305844352482E-2</v>
+        <v>0.32684701401435612</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -12768,7 +12757,7 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>1.1040574109851514E-3</v>
+        <v>0.24124478109100841</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -12789,7 +12778,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>2.5365315687896513E-2</v>
+        <v>0.19761700300558191</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -12810,7 +12799,7 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>3.9257865017477772E-2</v>
+        <v>0.19182221856755224</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -12831,7 +12820,7 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17144877753081444</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -12852,7 +12841,7 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>0.16662354463130666</v>
+        <v>0.38746999815373262</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -12873,7 +12862,7 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0.22724920529311732</v>
+        <v>0.67568385989704227</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -12894,7 +12883,7 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>-4.4093729293416019E-2</v>
+        <v>0.46002392124390451</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -12915,7 +12904,7 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>-7.6186275127607311E-2</v>
+        <v>0.34730263762521835</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -12936,7 +12925,7 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>2.2987721691678068E-2</v>
+        <v>0.34417854261898351</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -12957,7 +12946,7 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.11715676468627073</v>
+        <v>0.44493316084519202</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -12978,7 +12967,7 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>1.2713381878954251E-2</v>
+        <v>0.4633031479085814</v>
       </c>
       <c r="H24" s="19"/>
     </row>
@@ -13000,7 +12989,7 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>-4.6325219543820434E-2</v>
+        <v>0.19620019220817617</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -13021,7 +13010,7 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>1.2483777269637116E-2</v>
+        <v>-1.3131739051864388E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -13042,7 +13031,7 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>6.9523286333394468E-2</v>
+        <v>0.10416535383452014</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -13063,7 +13052,7 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>9.502339915534759E-2</v>
+        <v>0.30879945429740802</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -13084,7 +13073,7 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1257622348465236E-2</v>
+        <v>0.26498633059945309</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -13105,7 +13094,7 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>-1.9503452638236054E-3</v>
+        <v>0.13011818073295917</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -13126,7 +13115,7 @@
       </c>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>-8.3923101299250097E-2</v>
+        <v>2.2278540696646268E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" thickBot="1">
@@ -13147,7 +13136,7 @@
       </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>-5.3041222254251882E-2</v>
+        <v>1.5079414127680598E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -13168,7 +13157,7 @@
       </c>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
-        <v>-4.6159512937595203E-2</v>
+        <v>-4.3714215955563678E-2</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>43</v>
@@ -13193,7 +13182,7 @@
       </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>-0.15937046613769346</v>
+        <v>-0.24837347334779142</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -13216,7 +13205,7 @@
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>6.5679574791192158E-2</v>
+        <v>-0.26851514045968627</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>29</v>
@@ -13246,7 +13235,7 @@
       </c>
       <c r="F36" s="2">
         <f t="shared" si="0"/>
-        <v>-3.9828998931243344E-2</v>
+        <v>-0.28965262769490274</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>30</v>
@@ -13280,7 +13269,7 @@
       </c>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>1.0908281389136234E-2</v>
+        <v>-0.2805006865955425</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>31</v>
@@ -13307,7 +13296,7 @@
       </c>
       <c r="F38" s="2">
         <f t="shared" si="0"/>
-        <v>0.15092123614475542</v>
+        <v>-9.6050735082156058E-2</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>32</v>
@@ -13334,7 +13323,7 @@
       </c>
       <c r="F39" s="2">
         <f t="shared" si="0"/>
-        <v>-1.9452771222654576E-2</v>
+        <v>-6.3987823439878175E-2</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>33</v>
@@ -13361,7 +13350,7 @@
       </c>
       <c r="F40" s="2">
         <f t="shared" si="0"/>
-        <v>-6.8882528944972043E-2</v>
+        <v>-8.6286121697880067E-2</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>34</v>
@@ -13388,7 +13377,7 @@
       </c>
       <c r="F41" s="2">
         <f t="shared" si="0"/>
-        <v>1.3971358714642146E-4</v>
+        <v>8.709187547456361E-2</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>35</v>
@@ -13415,7 +13404,7 @@
       </c>
       <c r="F42" s="2">
         <f t="shared" si="0"/>
-        <v>-0.13550324788712723</v>
+        <v>-0.11813323833273948</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>36</v>
@@ -13443,7 +13432,7 @@
       </c>
       <c r="F43" s="2">
         <f t="shared" si="0"/>
-        <v>0.11497131776682547</v>
+        <v>2.404274265360648E-2</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>37</v>
@@ -13470,7 +13459,7 @@
       </c>
       <c r="F44" s="2">
         <f t="shared" si="0"/>
-        <v>-3.2318840579709997E-2</v>
+        <v>-1.9746017764075238E-2</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="5" t="s">
@@ -13498,7 +13487,7 @@
       </c>
       <c r="F45" s="2">
         <f t="shared" si="0"/>
-        <v>0.10152912984873423</v>
+        <v>-6.1813891192040483E-2</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>39</v>
@@ -13525,7 +13514,7 @@
       </c>
       <c r="F46" s="2">
         <f t="shared" si="0"/>
-        <v>3.0264136474817641E-2</v>
+        <v>-1.4244828931963039E-2</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>40</v>
@@ -13552,7 +13541,7 @@
       </c>
       <c r="F47" s="2">
         <f t="shared" si="0"/>
-        <v>3.2992411745287327E-4</v>
+        <v>5.9028990569332786E-2</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>41</v>
@@ -13579,7 +13568,7 @@
       </c>
       <c r="F48" s="2">
         <f t="shared" si="0"/>
-        <v>0.11589709762532996</v>
+        <v>0.18160229098274777</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>42</v>
@@ -13606,7 +13595,7 @@
       </c>
       <c r="F49" s="2">
         <f t="shared" si="0"/>
-        <v>1.442336111603694E-2</v>
+        <v>0.38652339015916598</v>
       </c>
       <c r="H49" s="8"/>
     </row>
@@ -13628,7 +13617,7 @@
       </c>
       <c r="F50" s="2">
         <f t="shared" si="0"/>
-        <v>-5.6232154303362314E-2</v>
+        <v>0.17362318840579696</v>
       </c>
       <c r="H50" s="8"/>
     </row>
@@ -13650,7 +13639,7 @@
       </c>
       <c r="F51" s="2">
         <f t="shared" si="0"/>
-        <v>-7.8167448752778271E-2</v>
+        <v>0.11801707353601909</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -13672,7 +13661,7 @@
       </c>
       <c r="F52" s="2">
         <f t="shared" si="0"/>
-        <v>-3.3958472873409383E-2</v>
+        <v>-1.9498539071178312E-2</v>
       </c>
       <c r="H52" s="8"/>
     </row>
@@ -13694,7 +13683,7 @@
       </c>
       <c r="F53" s="2">
         <f t="shared" si="0"/>
-        <v>3.2794841572488319E-2</v>
+        <v>-1.7090069284064875E-2</v>
       </c>
       <c r="H53" s="8"/>
     </row>
@@ -13716,7 +13705,7 @@
       </c>
       <c r="F54" s="2">
         <f t="shared" si="0"/>
-        <v>-0.10942534908700312</v>
+        <v>-0.12493403693931397</v>
       </c>
       <c r="H54" s="8"/>
     </row>
@@ -13738,7 +13727,7 @@
       </c>
       <c r="F55" s="2">
         <f t="shared" si="0"/>
-        <v>3.8971807628523952E-2</v>
+        <v>-0.18525743335106715</v>
       </c>
       <c r="H55" s="8"/>
     </row>
@@ -13760,7 +13749,7 @@
       </c>
       <c r="F56" s="2">
         <f t="shared" si="0"/>
-        <v>2.9601683232968242E-2</v>
+        <v>-0.17306683759687658</v>
       </c>
       <c r="H56" s="8"/>
     </row>
@@ -13782,7 +13771,7 @@
       </c>
       <c r="F57" s="2">
         <f t="shared" si="0"/>
-        <v>-4.4605736029878183E-2</v>
+        <v>-0.16287972338849097</v>
       </c>
       <c r="H57" s="8"/>
     </row>
@@ -13804,7 +13793,7 @@
       </c>
       <c r="F58" s="2">
         <f t="shared" si="0"/>
-        <v>1.2538722525447406E-3</v>
+        <v>-9.0756865371734829E-2</v>
       </c>
       <c r="H58" s="8"/>
     </row>
@@ -13826,7 +13815,7 @@
       </c>
       <c r="F59" s="2">
         <f t="shared" si="0"/>
-        <v>-0.18438305709023942</v>
+        <v>-0.23233723913194199</v>
       </c>
       <c r="H59" s="8"/>
     </row>
@@ -13848,7 +13837,7 @@
       </c>
       <c r="F60" s="2">
         <f t="shared" si="0"/>
-        <v>9.0317919075152216E-4</v>
+        <v>-0.25604189044038655</v>
       </c>
       <c r="H60" s="8"/>
     </row>
@@ -13870,7 +13859,7 @@
       </c>
       <c r="F61" s="2">
         <f t="shared" si="0"/>
-        <v>-3.3387475184985067E-3</v>
+        <v>-0.1674204733906226</v>
       </c>
       <c r="H61" s="8"/>
     </row>
@@ -13892,7 +13881,7 @@
       </c>
       <c r="F62" s="2">
         <f t="shared" si="0"/>
-        <v>3.9022181982797534E-2</v>
+        <v>-0.16738010592759192</v>
       </c>
       <c r="H62" s="8"/>
     </row>
@@ -13914,7 +13903,7 @@
       </c>
       <c r="F63" s="2">
         <f t="shared" si="0"/>
-        <v>0.1090972464273267</v>
+        <v>-0.10309350997110842</v>
       </c>
       <c r="H63" s="8"/>
     </row>
@@ -13936,7 +13925,7 @@
       </c>
       <c r="F64" s="2">
         <f t="shared" si="0"/>
-        <v>-9.5380263984915045E-2</v>
+        <v>-0.15075969907065917</v>
       </c>
       <c r="H64" s="8"/>
     </row>
@@ -13958,7 +13947,7 @@
       </c>
       <c r="F65" s="2">
         <f t="shared" si="0"/>
-        <v>-6.4530137224248912E-2</v>
+        <v>-0.20655616942909766</v>
       </c>
       <c r="H65" s="8"/>
     </row>
@@ -13980,7 +13969,7 @@
       </c>
       <c r="F66" s="2">
         <f t="shared" si="0"/>
-        <v>4.4564107325226832E-3</v>
+        <v>-2.2850433526011443E-2</v>
       </c>
       <c r="H66" s="8"/>
     </row>
@@ -14002,7 +13991,7 @@
       </c>
       <c r="F67" s="2">
         <f t="shared" si="0"/>
-        <v>5.499584065070711E-2</v>
+        <v>2.9958491247067381E-2</v>
       </c>
       <c r="H67" s="8"/>
     </row>
@@ -14023,8 +14012,8 @@
         <v>111.46</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" ref="F68:F84" si="1">(E68-E67)/E67</f>
-        <v>-2.3479936919572637E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.1444092349478572E-3</v>
       </c>
       <c r="H68" s="8"/>
     </row>
@@ -14045,8 +14034,8 @@
         <v>110.7</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="1"/>
-        <v>-6.8185896285662207E-3</v>
+        <f t="shared" si="0"/>
+        <v>-3.5378180550714435E-2</v>
       </c>
       <c r="H69" s="8"/>
     </row>
@@ -14067,8 +14056,8 @@
         <v>114.60999999999999</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="1"/>
-        <v>3.5320686540198577E-2</v>
+        <f t="shared" si="0"/>
+        <v>-9.9544311753614209E-2</v>
       </c>
       <c r="H70" s="8"/>
     </row>
@@ -14089,8 +14078,8 @@
         <v>118.39000000000001</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="1"/>
-        <v>3.2981415234273011E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.8226506861212433E-2</v>
       </c>
       <c r="H71" s="8"/>
     </row>
@@ -14111,8 +14100,8 @@
         <v>112.12</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="1"/>
-        <v>-5.2960554100853194E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0943273605050699E-2</v>
       </c>
       <c r="H72" s="8"/>
     </row>
@@ -14133,8 +14122,8 @@
         <v>101.75</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="1"/>
-        <v>-9.2490189083125257E-2</v>
+        <f t="shared" si="0"/>
+        <v>-5.9524909880765427E-2</v>
       </c>
       <c r="H73" s="8"/>
     </row>
@@ -14155,8 +14144,8 @@
         <v>102.84</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0712530712530746E-2</v>
+        <f t="shared" ref="F74:F84" si="1">(E74-E67)/E67</f>
+        <v>-9.9001226563869019E-2</v>
       </c>
       <c r="H74" s="8"/>
     </row>
@@ -14178,7 +14167,7 @@
       </c>
       <c r="F75" s="2">
         <f t="shared" si="1"/>
-        <v>-0.10724426293271097</v>
+        <v>-0.17628745738381471</v>
       </c>
       <c r="H75" s="8"/>
     </row>
@@ -14200,7 +14189,7 @@
       </c>
       <c r="F76" s="2">
         <f t="shared" si="1"/>
-        <v>-3.1074707823681349E-2</v>
+        <v>-0.19640469738030716</v>
       </c>
       <c r="H76" s="8"/>
     </row>
@@ -14222,7 +14211,7 @@
       </c>
       <c r="F77" s="2">
         <f t="shared" si="1"/>
-        <v>3.637671710245273E-2</v>
+        <v>-0.1955850274845127</v>
       </c>
       <c r="H77" s="8"/>
     </row>
@@ -14244,7 +14233,7 @@
       </c>
       <c r="F78" s="2">
         <f t="shared" si="1"/>
-        <v>-0.11057118684513081</v>
+        <v>-0.30737393360925763</v>
       </c>
       <c r="H78" s="8"/>
     </row>
@@ -14266,7 +14255,7 @@
       </c>
       <c r="F79" s="2">
         <f t="shared" si="1"/>
-        <v>-0.15245121951219517</v>
+        <v>-0.38013735283624694</v>
       </c>
       <c r="H79" s="8"/>
     </row>
@@ -14288,7 +14277,7 @@
       </c>
       <c r="F80" s="2">
         <f t="shared" si="1"/>
-        <v>0.10415977208305162</v>
+        <v>-0.24581818181818182</v>
       </c>
       <c r="H80" s="8"/>
     </row>
@@ -14310,7 +14299,7 @@
       </c>
       <c r="F81" s="2">
         <f t="shared" si="1"/>
-        <v>-1.1311214782767273E-2</v>
+        <v>-0.26225204200700114</v>
       </c>
       <c r="H81" s="8"/>
     </row>
@@ -14332,7 +14321,7 @@
       </c>
       <c r="F82" s="2">
         <f t="shared" si="1"/>
-        <v>8.5422433109265769E-2</v>
+        <v>-0.10303776235963019</v>
       </c>
       <c r="H82" s="8"/>
     </row>
@@ -14354,7 +14343,7 @@
       </c>
       <c r="F83" s="2">
         <f t="shared" si="1"/>
-        <v>5.4413425459314504E-2</v>
+        <v>-2.389891859079555E-2</v>
       </c>
       <c r="H83" s="8"/>
     </row>
@@ -14376,7 +14365,7 @@
       </c>
       <c r="F84" s="2">
         <f t="shared" si="1"/>
-        <v>-1.3831306430809005E-2</v>
+        <v>-7.1186845130919468E-2</v>
       </c>
       <c r="H84" s="22">
         <f>A84-A2</f>
@@ -14386,7 +14375,7 @@
     <row r="85" spans="1:8">
       <c r="F85" s="2">
         <f>SUM(F3:F84)</f>
-        <v>0.26193184405645215</v>
+        <v>1.3210653066583984</v>
       </c>
       <c r="H85" s="8"/>
     </row>
